--- a/zf-automation/zf-web/src/main/resources/testdata/MultipleGatewaySpreadsheets/Bulk_Provisioning_GatewayDetails_Intermediate_New.xlsx
+++ b/zf-automation/zf-web/src/main/resources/testdata/MultipleGatewaySpreadsheets/Bulk_Provisioning_GatewayDetails_Intermediate_New.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\311776\git\ZFIoTPlatform\ZFIoTPlatform\src\test\resources\Multiple Gateway Input Spreadsheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7080" tabRatio="959"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -44,9 +39,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>MAC_ID</t>
-  </si>
-  <si>
     <t>SERIAL_NO</t>
   </si>
   <si>
@@ -150,13 +142,16 @@
   </si>
   <si>
     <t>key33:value33,key44:value44</t>
+  </si>
+  <si>
+    <t>MAC_ID/IMEI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -275,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +305,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -499,11 +494,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -513,7 +508,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -541,11 +536,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -555,7 +550,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -572,21 +567,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -595,7 +590,7 @@
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,104 +613,104 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" ht="25.5">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="25.5">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -756,60 +751,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H4:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="4" spans="8:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="8:13" ht="15">
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="8:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="8:13" ht="15">
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="8" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="8:13">
       <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
         <v>13</v>
       </c>
-      <c r="M8" t="s">
+    </row>
+    <row r="9" spans="8:13">
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="8:13">
+      <c r="L10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="L9" t="s">
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="8:13">
+      <c r="M11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13">
+      <c r="M12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="8:13">
+      <c r="M13" t="s">
         <v>17</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="M12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="M13" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -824,12 +819,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
